--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>884389.5917271756</v>
+        <v>908991.0525120362</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -656,61 +656,61 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="T2" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>56.44668651036056</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>105.3690580549763</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,76 +893,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>52.64939492479343</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>72.55971260501168</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1133,61 +1133,61 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S8" t="n">
-        <v>9.211010870930394</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>120.6356048773794</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>115.4706064564044</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,29 +1367,29 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
@@ -1412,28 +1412,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T11" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.45244284025838</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,22 +1613,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1701,13 +1701,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>57.19327783661838</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1898,10 +1898,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>90.38893773807641</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2041,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,11 +2078,11 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>85.75914062002796</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>88.91888512441756</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2245,58 +2245,58 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,25 +2318,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>103.7035670991123</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>73.65149036371015</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,23 +2552,23 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="F26" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="G26" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>21.03188713646763</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>193.7765438930268</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2792,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,22 +2837,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2874,19 +2874,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>59.92927324892199</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>160.6082254763319</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2959,46 +2959,46 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3114,7 +3114,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>67.06382024292617</v>
       </c>
       <c r="I33" t="n">
-        <v>42.04748827521355</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,65 +3263,65 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="F35" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>55.57566235103577</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>34.63448820146006</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>27.0191969268038</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>98.8791247817603</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3746,22 +3746,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3822,13 +3822,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3940,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>9.211010870930394</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>114.6969565630368</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>47.29627918133471</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D2" t="n">
         <v>16.44142755506243</v>
@@ -4337,7 +4337,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4355,25 +4355,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>518.7152536647734</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C3" t="n">
-        <v>518.7152536647734</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="D3" t="n">
-        <v>461.6983986038031</v>
+        <v>122.874819529786</v>
       </c>
       <c r="E3" t="n">
-        <v>302.4609435983476</v>
+        <v>122.874819529786</v>
       </c>
       <c r="F3" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O3" t="n">
         <v>752.6768192397923</v>
@@ -4431,28 +4431,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>518.7152536647734</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>518.7152536647734</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>518.7152536647734</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W3" t="n">
-        <v>518.7152536647734</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X3" t="n">
-        <v>518.7152536647734</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y3" t="n">
-        <v>518.7152536647734</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4483,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4568,10 +4568,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4604,13 +4604,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3758372163137</v>
+        <v>244.0756638309303</v>
       </c>
       <c r="C6" t="n">
-        <v>165.3758372163137</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="G6" t="n">
         <v>16.44142755506243</v>
@@ -4647,22 +4647,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4674,22 +4674,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W6" t="n">
-        <v>748.7787387581603</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X6" t="n">
-        <v>541.1849564972711</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y6" t="n">
-        <v>333.5911742363817</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4811,7 +4811,7 @@
         <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4823,31 +4823,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W8" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X8" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y8" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>329.6252822535739</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="C9" t="n">
-        <v>155.1722529724469</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D9" t="n">
-        <v>155.1722529724469</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E9" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4884,16 +4884,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4908,25 +4908,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X9" t="n">
-        <v>705.4344015345313</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="Y9" t="n">
-        <v>497.8406192736419</v>
+        <v>446.4674385625565</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4984,28 +4984,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5051,7 +5051,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>822.0713777531216</v>
@@ -5060,25 +5060,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
         <v>224.0352098159517</v>
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>499.0663215028962</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
         <v>16.44142755506243</v>
@@ -5124,19 +5124,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5145,25 +5145,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>518.7152536647734</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>518.7152536647734</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V12" t="n">
-        <v>518.7152536647734</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W12" t="n">
-        <v>518.7152536647734</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>518.7152536647734</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y12" t="n">
-        <v>518.7152536647734</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5221,28 +5221,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>28.51141680214578</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="F14" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>37.81546818692397</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>359.4777986593179</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>212.9432406862029</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>74.21241526881838</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5367,40 +5367,40 @@
         <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5458,28 +5458,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
         <v>712.019119383956</v>
@@ -5622,22 +5622,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5689,16 +5689,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5771,25 +5771,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
         <v>506.1786963984129</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>776.2622314978371</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>776.2622314978371</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>776.2622314978371</v>
       </c>
       <c r="V21" t="n">
-        <v>353.3011080883284</v>
+        <v>776.2622314978371</v>
       </c>
       <c r="W21" t="n">
-        <v>109.8523314442283</v>
+        <v>532.8134548537371</v>
       </c>
       <c r="X21" t="n">
-        <v>20.03527576299844</v>
+        <v>532.8134548537371</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>325.0531560887832</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>283.2696759935595</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C24" t="n">
-        <v>283.2696759935595</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="D24" t="n">
-        <v>283.2696759935595</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="E24" t="n">
-        <v>124.032220988104</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>93.67658792204116</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>93.67658792204116</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>93.67658792204116</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6072,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2696759935595</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>283.2696759935595</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y24" t="n">
-        <v>283.2696759935595</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E26" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F26" t="n">
         <v>233.7108255783361</v>
-      </c>
-      <c r="C26" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="D26" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6266,10 +6266,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>371.8843175067282</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C27" t="n">
-        <v>371.8843175067282</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="D27" t="n">
-        <v>222.9499078454769</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="E27" t="n">
-        <v>222.9499078454769</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="F27" t="n">
-        <v>222.9499078454769</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,7 +6312,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>540.0996545267963</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>540.0996545267963</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X27" t="n">
-        <v>540.0996545267963</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y27" t="n">
-        <v>540.0996545267963</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>122.6530896684844</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>325.0531560887832</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="C30" t="n">
-        <v>325.0531560887832</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="D30" t="n">
-        <v>325.0531560887832</v>
+        <v>377.7840429764083</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>218.5465879709528</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>218.5465879709528</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>79.81576255356828</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>325.0531560887832</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>325.0531560887832</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>325.0531560887832</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X30" t="n">
-        <v>325.0531560887832</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y30" t="n">
-        <v>325.0531560887832</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6731,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>385.8949250843803</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C33" t="n">
-        <v>211.4418958032533</v>
+        <v>486.248002141161</v>
       </c>
       <c r="D33" t="n">
-        <v>62.50748614200202</v>
+        <v>337.3135924799097</v>
       </c>
       <c r="E33" t="n">
-        <v>62.50748614200202</v>
+        <v>178.0761374744542</v>
       </c>
       <c r="F33" t="n">
-        <v>62.50748614200202</v>
+        <v>178.0761374744542</v>
       </c>
       <c r="G33" t="n">
-        <v>62.50748614200202</v>
+        <v>178.0761374744542</v>
       </c>
       <c r="H33" t="n">
-        <v>62.50748614200202</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6780,19 +6780,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W33" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X33" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y33" t="n">
-        <v>554.1102621044483</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
         <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6968,13 +6968,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
         <v>720.6083788665362</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>75.41817578802664</v>
+        <v>258.688372014889</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>258.688372014889</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>258.688372014889</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>258.688372014889</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>258.688372014889</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7020,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>526.7184526376595</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2696759935595</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X36" t="n">
-        <v>75.41817578802664</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y36" t="n">
-        <v>75.41817578802664</v>
+        <v>426.903709034957</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="38">
@@ -7196,10 +7196,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
         <v>749.627473042513</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>344.5415416409353</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C39" t="n">
-        <v>317.2494235330527</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D39" t="n">
-        <v>317.2494235330527</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>763.009722243562</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>560.8231276023281</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>560.8231276023281</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>560.8231276023281</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>560.8231276023281</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.7568786610034</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J40" t="n">
         <v>19.28114311021272</v>
@@ -7357,25 +7357,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E41" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G41" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7418,10 +7418,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7439,22 +7439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7470,10 +7470,10 @@
         <v>64.21544693014803</v>
       </c>
       <c r="D42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7491,22 +7491,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>163.1080096386462</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M42" t="n">
-        <v>366.5706756325438</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>570.0333416264414</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.1051990630351</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7673,25 +7673,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>651.2927635848137</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U44" t="n">
-        <v>651.2927635848137</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V44" t="n">
-        <v>651.2927635848137</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W44" t="n">
-        <v>443.6989813239244</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X44" t="n">
-        <v>443.6989813239244</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.1051990630351</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
         <v>16.44142755506243</v>
@@ -7734,13 +7734,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7749,28 +7749,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>339.8907214957869</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>339.8907214957869</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957869</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y45" t="n">
-        <v>132.2969392348976</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="46">
@@ -7985,10 +7985,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,7 +8070,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>279.489774794024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,10 +8459,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>155.3219763666824</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8699,10 +8699,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,7 +9015,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9252,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9960,10 +9960,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11066,13 +11066,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>286.7024424905649</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,13 +11151,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,16 +11382,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22595,10 +22595,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22610,10 +22610,10 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,22 +22623,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>90.99837905427819</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>39.70015433840754</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22647,7 +22647,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22863,10 +22863,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22875,7 +22875,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>84.69412223841721</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22914,7 +22914,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>179.1352705559079</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23021,13 +23021,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23036,13 +23036,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>199.809058715315</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23084,7 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,22 +23097,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>52.07289411093629</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23148,10 +23148,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23163,10 +23163,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>90.30237874707304</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23203,7 +23203,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23276,7 +23276,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,28 +23300,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9355493385884</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,16 +23334,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>147.080740809609</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23385,13 +23385,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>105.8913097744792</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23437,10 +23437,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>71.32518834398851</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,22 +23501,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910244</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>318.5412475992045</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,10 +23574,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23589,13 +23589,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>55.04216639987808</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23677,7 +23677,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23753,7 +23753,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,19 +23862,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23929,19 +23929,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>146.9462822885158</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24054,10 +24054,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>85.92403048380986</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>116.8541000790599</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,25 +24206,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,13 +24248,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>41.36564529427154</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24303,7 +24303,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>15.74514248770492</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24537,13 +24537,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>91.20355710002883</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>39.0240432563985</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24680,10 +24680,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24698,7 +24698,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24725,22 +24725,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>246.9027416247241</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24762,19 +24762,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>52.30617098757447</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>65.33315660464297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>380.9243455904444</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24971,19 +24971,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25002,7 +25002,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25011,10 +25011,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>45.17162399357029</v>
       </c>
       <c r="I33" t="n">
-        <v>47.34914457620153</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>117.13283663728</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25245,16 +25245,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>102.7090289617506</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25360,7 +25360,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25436,13 +25436,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>145.6893020615119</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25482,7 +25482,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>72.80404632207753</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,7 +25530,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25570,7 +25570,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25597,10 +25597,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>188.1178019595862</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25634,22 +25634,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,16 +25679,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25710,13 +25710,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>97.77293321204914</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25828,10 +25828,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>199.809058715315</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>51.8362270868305</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25989,25 +25989,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>204.3987039795849</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>410322.9112719611</v>
+        <v>410322.911271961</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>410322.9112719611</v>
+        <v>410322.911271961</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>410322.9112719611</v>
+        <v>410322.9112719612</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432196.38341668</v>
+        <v>432196.3834166798</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432196.3834166799</v>
+        <v>432196.3834166802</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432196.3834166799</v>
+        <v>432196.38341668</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432196.3834166799</v>
+        <v>432196.3834166798</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432196.38341668</v>
+        <v>432196.3834166799</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410322.911271961</v>
+        <v>410322.9112719611</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410322.911271961</v>
+        <v>410322.9112719611</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26317,7 @@
         <v>165645.5239266781</v>
       </c>
       <c r="D2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="E2" t="n">
         <v>165645.5239266781</v>
@@ -26329,10 +26329,10 @@
         <v>174468.7061578989</v>
       </c>
       <c r="H2" t="n">
+        <v>174468.7061578989</v>
+      </c>
+      <c r="I2" t="n">
         <v>174468.706157899</v>
-      </c>
-      <c r="I2" t="n">
-        <v>174468.7061578989</v>
       </c>
       <c r="J2" t="n">
         <v>174468.7061578989</v>
@@ -26341,7 +26341,7 @@
         <v>174468.7061578989</v>
       </c>
       <c r="L2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="M2" t="n">
         <v>174468.7061578989</v>
@@ -26350,7 +26350,7 @@
         <v>174468.706157899</v>
       </c>
       <c r="O2" t="n">
-        <v>165645.5239266782</v>
+        <v>165645.5239266781</v>
       </c>
       <c r="P2" t="n">
         <v>165645.5239266781</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="C4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="D4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="E4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="F4" t="n">
-        <v>26843.34631524591</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23805.33608789494</v>
+        <v>26678.18206782933</v>
       </c>
       <c r="C6" t="n">
-        <v>92679.09266958476</v>
+        <v>95551.93864951917</v>
       </c>
       <c r="D6" t="n">
-        <v>92679.09266958476</v>
+        <v>95551.9386495192</v>
       </c>
       <c r="E6" t="n">
-        <v>126306.6926695847</v>
+        <v>129179.5386495192</v>
       </c>
       <c r="F6" t="n">
-        <v>126306.6926695849</v>
+        <v>129179.5386495192</v>
       </c>
       <c r="G6" t="n">
-        <v>121775.7530889602</v>
+        <v>124803.7262073509</v>
       </c>
       <c r="H6" t="n">
-        <v>131504.7960631274</v>
+        <v>134532.769181518</v>
       </c>
       <c r="I6" t="n">
-        <v>131504.7960631273</v>
+        <v>134532.769181518</v>
       </c>
       <c r="J6" t="n">
-        <v>77732.28517291791</v>
+        <v>80760.25829130856</v>
       </c>
       <c r="K6" t="n">
-        <v>131504.7960631273</v>
+        <v>134532.769181518</v>
       </c>
       <c r="L6" t="n">
-        <v>131504.7960631273</v>
+        <v>134532.769181518</v>
       </c>
       <c r="M6" t="n">
-        <v>131504.7960631273</v>
+        <v>134532.769181518</v>
       </c>
       <c r="N6" t="n">
-        <v>131504.7960631274</v>
+        <v>134532.7691815181</v>
       </c>
       <c r="O6" t="n">
-        <v>126306.6926695848</v>
+        <v>129179.5386495191</v>
       </c>
       <c r="P6" t="n">
-        <v>126306.6926695848</v>
+        <v>129179.5386495191</v>
       </c>
     </row>
   </sheetData>
@@ -34705,10 +34705,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,7 +34790,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,10 +35179,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N8" t="n">
-        <v>185.0873001866707</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35419,10 +35419,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,7 +35972,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36680,10 +36680,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N27" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37388,19 +37388,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>148.1480627106907</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,13 +37871,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>908991.0525120362</v>
+        <v>909775.1984500648</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -656,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="T2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>105.3690580549763</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>155.1371722699136</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -978,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>52.64939492479343</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>105.3690580549763</v>
+      </c>
+      <c r="Y6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>181.0201173812374</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>120.6356048773794</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>14.48693373137008</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>205.5178444382804</v>
@@ -1452,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1494,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>81.44781579947808</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1613,58 +1615,58 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1692,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>57.19327783661838</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,16 +1736,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>29.90684812882265</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1898,10 +1900,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1983,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X18" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2041,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,64 +2083,64 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.75914062002796</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2394,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>54.82907102477792</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>73.65149036371015</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,64 +2484,64 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>21.03188713646763</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>162.6080338315131</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>85.49838238928905</v>
       </c>
       <c r="H30" t="n">
-        <v>59.92927324892199</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2989,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.809496073036188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3044,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3114,7 +3116,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>67.06382024292617</v>
+        <v>76.79360427493792</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3190,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3357,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>34.63448820146006</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.0441028642076</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3463,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>3.265316057196634</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3579,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>98.8791247817603</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3682,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3752,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4019,20 +4021,20 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>28.72815266929527</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>47.29627918133471</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4156,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D2" t="n">
         <v>16.44142755506243</v>
@@ -4337,7 +4339,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4355,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y2" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="T2" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="U2" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="V2" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="W2" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="X2" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>446.2622584721643</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="C3" t="n">
-        <v>271.8092291910373</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="D3" t="n">
-        <v>122.874819529786</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E3" t="n">
-        <v>122.874819529786</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>142.2888212580996</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4437,22 +4439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="V3" t="n">
-        <v>614.4775954922324</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="W3" t="n">
-        <v>614.4775954922324</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="X3" t="n">
-        <v>614.4775954922324</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="Y3" t="n">
-        <v>614.4775954922324</v>
+        <v>665.3671633390675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4604,7 +4606,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
         <v>614.4775954922324</v>
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244.0756638309303</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C6" t="n">
-        <v>69.62263454980328</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D6" t="n">
-        <v>69.62263454980328</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>69.62263454980328</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>69.62263454980328</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
         <v>16.44142755506243</v>
@@ -4650,13 +4652,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
         <v>639.4279001397708</v>
@@ -4674,22 +4676,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>412.2910008509983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>412.2910008509983</v>
+        <v>715.637985778398</v>
       </c>
       <c r="Y6" t="n">
-        <v>412.2910008509983</v>
+        <v>508.0442035175087</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4805,10 +4807,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4835,19 +4837,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X8" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="V8" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="X8" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>446.4674385625565</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
         <v>16.44142755506243</v>
@@ -4884,16 +4886,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
-        <v>626.8294255367553</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4908,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>446.4674385625565</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>446.4674385625565</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X9" t="n">
-        <v>446.4674385625565</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y9" t="n">
-        <v>446.4674385625565</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4981,31 +4983,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E11" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F11" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G11" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5069,22 +5071,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E12" t="n">
         <v>16.44142755506243</v>
@@ -5121,49 +5123,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>435.9652341458732</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N12" t="n">
-        <v>639.4279001397708</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>224.0352098159517</v>
+        <v>739.8008567435478</v>
       </c>
       <c r="X12" t="n">
-        <v>224.0352098159517</v>
+        <v>532.2070744826585</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>324.6132922217692</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5221,28 +5223,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5285,7 +5287,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>518.7152536647734</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C15" t="n">
-        <v>518.7152536647734</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D15" t="n">
-        <v>518.7152536647734</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E15" t="n">
-        <v>359.4777986593179</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F15" t="n">
-        <v>212.9432406862029</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G15" t="n">
-        <v>74.21241526881838</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5382,25 +5384,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>518.7152536647734</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>518.7152536647734</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V15" t="n">
-        <v>518.7152536647734</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="W15" t="n">
-        <v>518.7152536647734</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="X15" t="n">
-        <v>518.7152536647734</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="Y15" t="n">
-        <v>518.7152536647734</v>
+        <v>107.4951893506917</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5534,19 +5536,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5604,10 +5606,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>533.6469426057913</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>298.4948343740486</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5689,16 +5691,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5771,10 +5773,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
         <v>749.627473042513</v>
@@ -5783,19 +5785,19 @@
         <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>776.2622314978371</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>776.2622314978371</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>776.2622314978371</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>776.2622314978371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>532.8134548537371</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>532.8134548537371</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E23" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F23" t="n">
-        <v>718.7806050553886</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>414.6641751762832</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="C24" t="n">
-        <v>240.2111458951562</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="D24" t="n">
-        <v>240.2111458951562</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="E24" t="n">
-        <v>240.2111458951562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>93.67658792204116</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>93.67658792204116</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>93.67658792204116</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X24" t="n">
-        <v>790.6398109613051</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y24" t="n">
-        <v>582.8795121963512</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>131.5792353467183</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C27" t="n">
-        <v>131.5792353467183</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,16 +6311,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>547.1910343172051</v>
+        <v>336.430889791532</v>
       </c>
       <c r="X27" t="n">
-        <v>339.3395341116723</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y27" t="n">
-        <v>131.5792353467183</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>526.7184526376595</v>
+        <v>105.643145523636</v>
       </c>
       <c r="C30" t="n">
-        <v>526.7184526376595</v>
+        <v>105.643145523636</v>
       </c>
       <c r="D30" t="n">
-        <v>377.7840429764083</v>
+        <v>105.643145523636</v>
       </c>
       <c r="E30" t="n">
-        <v>218.5465879709528</v>
+        <v>105.643145523636</v>
       </c>
       <c r="F30" t="n">
-        <v>218.5465879709528</v>
+        <v>105.643145523636</v>
       </c>
       <c r="G30" t="n">
-        <v>79.81576255356828</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>526.7184526376595</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>526.7184526376595</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>526.7184526376595</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y30" t="n">
-        <v>526.7184526376595</v>
+        <v>273.858482543704</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y32" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="V32" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="W32" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="X32" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>660.701031422288</v>
+        <v>420.237879300003</v>
       </c>
       <c r="C33" t="n">
-        <v>486.248002141161</v>
+        <v>245.784850018876</v>
       </c>
       <c r="D33" t="n">
-        <v>337.3135924799097</v>
+        <v>96.85044035762476</v>
       </c>
       <c r="E33" t="n">
-        <v>178.0761374744542</v>
+        <v>96.85044035762476</v>
       </c>
       <c r="F33" t="n">
-        <v>178.0761374744542</v>
+        <v>96.85044035762476</v>
       </c>
       <c r="G33" t="n">
-        <v>178.0761374744542</v>
+        <v>96.85044035762476</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6970,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>258.688372014889</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C36" t="n">
-        <v>258.688372014889</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D36" t="n">
-        <v>258.688372014889</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E36" t="n">
-        <v>258.688372014889</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F36" t="n">
-        <v>258.688372014889</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999109</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>634.6640077999109</v>
+        <v>527.4825781782833</v>
       </c>
       <c r="W36" t="n">
-        <v>634.6640077999109</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="X36" t="n">
-        <v>634.6640077999109</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="Y36" t="n">
-        <v>426.903709034957</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7193,10 +7195,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>960.7588564629629</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
         <v>749.627473042513</v>
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>352.9716273967953</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C39" t="n">
-        <v>178.5185981156682</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>763.009722243562</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>560.8231276023281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>560.8231276023281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>560.8231276023281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>560.8231276023281</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>352.9716273967953</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y39" t="n">
-        <v>352.9716273967953</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
         <v>19.28114311021272</v>
@@ -7357,25 +7359,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7442,19 +7444,19 @@
         <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7496,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37.81546818692397</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
         <v>16.44142755506243</v>
@@ -7649,10 +7651,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
         <v>469.413761616576</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>245.4092504478133</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>245.4092504478133</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>245.4092504478133</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>245.4092504478133</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>245.4092504478133</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E45" t="n">
         <v>16.44142755506243</v>
@@ -7728,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>793.0530417235304</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>590.8664470822965</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>383.2726648214073</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>383.2726648214073</v>
       </c>
       <c r="W45" t="n">
-        <v>774.2973583780361</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="X45" t="n">
-        <v>566.7035761171468</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="Y45" t="n">
-        <v>359.1097938562575</v>
+        <v>175.6788825605179</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>781.8412894009042</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>781.8412894009042</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>781.8412894009042</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>781.8412894009042</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -7985,10 +7987,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>265.6729592778915</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
@@ -8307,7 +8309,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>155.3219763666824</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,13 +9254,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,22 +9485,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,19 +9959,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>349.0484638974528</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,10 +11074,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>209.1446748894994</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11154,7 +11156,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,13 +11390,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22595,10 +22597,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>42.07573218289394</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>39.70015433840754</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22677,13 +22679,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>45.027556424908</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22844,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22866,7 +22868,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22875,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>84.69412223841721</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22914,7 +22916,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22923,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>100.4039271485011</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>184.2527743897701</v>
@@ -23075,19 +23077,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23097,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>52.07289411093629</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23148,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>191.1957620459343</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>196.2020637443827</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>122.2344140318545</v>
@@ -23340,10 +23342,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23382,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>105.8913097744792</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>170.2471673614415</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>201.982606264288</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23501,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>200.9102526910244</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23580,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>55.04216639987808</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,16 +23624,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>202.8937390206026</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23786,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>139.0167266006028</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23871,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X18" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23929,19 +23931,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>146.6038018839531</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,10 +24056,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>85.92403048380986</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24209,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>380.1208739992256</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24282,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>102.816009430623</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24303,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>15.74514248770492</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>91.20355710002883</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>89.08694932940654</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24698,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24731,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>51.84513477392159</v>
       </c>
       <c r="H30" t="n">
-        <v>52.30617098757447</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24877,16 +24879,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>380.9243455904444</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24932,13 +24934,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>139.1387058269376</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24971,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25002,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25011,13 +25013,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>45.17162399357029</v>
+        <v>35.44183996155854</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25245,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>102.7090289617506</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0.7564842852176241</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.36645333167576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25351,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>146.6038018839531</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25467,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>31.11996679652773</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>72.80404632207753</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,13 +25532,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25570,7 +25572,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25597,10 +25599,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
-        <v>188.1178019595862</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25640,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25682,13 +25684,13 @@
         <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659908</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,10 +25867,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>344.1125915454646</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="45">
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>142.9550184345426</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>204.3987039795849</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>105.593260554236</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26044,7 +26046,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>410322.911271961</v>
+        <v>410322.9112719612</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>410322.911271961</v>
+        <v>410322.9112719611</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>410322.9112719612</v>
+        <v>410322.911271961</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410322.9112719611</v>
+        <v>410322.9112719612</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410322.9112719611</v>
+        <v>410322.911271961</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432196.3834166798</v>
+        <v>432196.3834166799</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>432196.3834166799</v>
+        <v>432196.3834166798</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432196.3834166802</v>
+        <v>432196.3834166799</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432196.38341668</v>
+        <v>432196.3834166799</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432196.3834166798</v>
+        <v>432196.3834166799</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432196.3834166799</v>
+        <v>432196.38341668</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>432196.3834166799</v>
+        <v>432196.38341668</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410322.9112719611</v>
+        <v>410322.911271961</v>
       </c>
     </row>
     <row r="16">
@@ -26317,13 +26319,13 @@
         <v>165645.5239266781</v>
       </c>
       <c r="D2" t="n">
-        <v>165645.5239266782</v>
+        <v>165645.5239266781</v>
       </c>
       <c r="E2" t="n">
         <v>165645.5239266781</v>
       </c>
       <c r="F2" t="n">
-        <v>165645.5239266782</v>
+        <v>165645.5239266781</v>
       </c>
       <c r="G2" t="n">
         <v>174468.7061578989</v>
@@ -26332,16 +26334,16 @@
         <v>174468.7061578989</v>
       </c>
       <c r="I2" t="n">
-        <v>174468.706157899</v>
+        <v>174468.7061578989</v>
       </c>
       <c r="J2" t="n">
         <v>174468.7061578989</v>
       </c>
       <c r="K2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="L2" t="n">
         <v>174468.7061578989</v>
-      </c>
-      <c r="L2" t="n">
-        <v>174468.706157899</v>
       </c>
       <c r="M2" t="n">
         <v>174468.7061578989</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
         <v>23970.50033531153</v>
       </c>
       <c r="D4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="E4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
         <v>25282.26821261927</v>
@@ -26457,7 +26459,7 @@
         <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>23970.50033531152</v>
+        <v>23970.50033531153</v>
       </c>
     </row>
     <row r="5">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26678.18206782933</v>
+        <v>26678.18206782934</v>
       </c>
       <c r="C6" t="n">
+        <v>95551.93864951914</v>
+      </c>
+      <c r="D6" t="n">
         <v>95551.93864951917</v>
-      </c>
-      <c r="D6" t="n">
-        <v>95551.9386495192</v>
       </c>
       <c r="E6" t="n">
         <v>129179.5386495192</v>
       </c>
       <c r="F6" t="n">
-        <v>129179.5386495192</v>
+        <v>129179.5386495191</v>
       </c>
       <c r="G6" t="n">
         <v>124803.7262073509</v>
@@ -26543,7 +26545,7 @@
         <v>134532.769181518</v>
       </c>
       <c r="J6" t="n">
-        <v>80760.25829130856</v>
+        <v>80760.25829130854</v>
       </c>
       <c r="K6" t="n">
         <v>134532.769181518</v>
@@ -26555,13 +26557,13 @@
         <v>134532.769181518</v>
       </c>
       <c r="N6" t="n">
-        <v>134532.7691815181</v>
+        <v>134532.769181518</v>
       </c>
       <c r="O6" t="n">
         <v>129179.5386495191</v>
       </c>
       <c r="P6" t="n">
-        <v>129179.5386495191</v>
+        <v>129179.5386495192</v>
       </c>
     </row>
   </sheetData>
@@ -34705,10 +34707,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N2" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N2" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>127.1185794980173</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
@@ -35027,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>12.72573192223796</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N14" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N14" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35972,13 +35974,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37792,10 +37794,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37874,7 +37876,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,13 +38110,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>909775.1984500648</v>
+        <v>805542.7001866217</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443407</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -658,20 +658,20 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>155.1371722699136</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,59 +895,59 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X6" t="n">
-        <v>105.3690580549763</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.5178444382804</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>41.39970040110641</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>169.0708280266249</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="D11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>105.5721863444646</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>81.44781579947808</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>29.90684812882265</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1900,10 +1900,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1985,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>99.13012673870388</v>
       </c>
     </row>
     <row r="19">
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2219,7 +2219,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>130.8643354597531</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2247,64 +2247,64 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>241.0142888776591</v>
@@ -2332,7 +2332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>54.82907102477792</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>162.6080338315131</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>178.1219707306483</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
@@ -2854,7 +2854,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>105.646926235338</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>85.49838238928905</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3028,31 +3028,31 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>76.79360427493792</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3195,52 +3195,52 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>82.37559015745698</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3365,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.0441028642076</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3435,43 +3435,43 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>212.5001071018605</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>89.17678471419174</v>
       </c>
       <c r="D42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,23 +3976,23 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U44" t="n">
         <v>205.5178444382804</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>28.72815266929527</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>9.336946277399546</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F2" t="n">
         <v>16.44142755506243</v>
@@ -4333,19 +4333,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4354,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4439,22 +4439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>665.3671633390675</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>665.3671633390675</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V3" t="n">
-        <v>665.3671633390675</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W3" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4506,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4570,49 +4570,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339.8288664974407</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
         <v>16.44142755506243</v>
@@ -4652,13 +4652,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O6" t="n">
         <v>639.4279001397708</v>
@@ -4679,19 +4679,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X6" t="n">
-        <v>715.637985778398</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.0442035175087</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4807,49 +4807,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4910,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V9" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W9" t="n">
-        <v>406.8838132313431</v>
+        <v>399.2423717498644</v>
       </c>
       <c r="X9" t="n">
-        <v>199.2900309704538</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="Y9" t="n">
-        <v>184.6567645751305</v>
+        <v>191.6485894889752</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>324.6132922217692</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="C12" t="n">
-        <v>324.6132922217692</v>
+        <v>272.0144092814295</v>
       </c>
       <c r="D12" t="n">
-        <v>175.6788825605179</v>
+        <v>123.0799996201782</v>
       </c>
       <c r="E12" t="n">
         <v>16.44142755506243</v>
@@ -5123,16 +5123,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5147,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W12" t="n">
-        <v>739.8008567435478</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X12" t="n">
-        <v>532.2070744826585</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="Y12" t="n">
-        <v>324.6132922217692</v>
+        <v>446.4674385625565</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5281,13 +5281,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5308,22 +5308,22 @@
         <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U14" t="n">
-        <v>37.81546818692397</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,46 +5363,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>107.4951893506917</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>107.4951893506917</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5472,16 +5472,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5697,19 +5697,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6080,13 +6080,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2696759935595</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>75.41817578802664</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6180,13 +6180,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6262,13 +6262,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
         <v>506.1786963984129</v>
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W27" t="n">
-        <v>336.430889791532</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X27" t="n">
-        <v>336.430889791532</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="Y27" t="n">
-        <v>336.430889791532</v>
+        <v>353.7257600495809</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6484,22 +6484,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W29" t="n">
         <v>19.28114311021272</v>
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.643145523636</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C30" t="n">
-        <v>105.643145523636</v>
+        <v>515.0172522330638</v>
       </c>
       <c r="D30" t="n">
-        <v>105.643145523636</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E30" t="n">
-        <v>105.643145523636</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F30" t="n">
-        <v>105.643145523636</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6554,10 +6554,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6584,10 +6584,10 @@
         <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>481.618781308658</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y30" t="n">
-        <v>273.858482543704</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6742,7 +6742,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
         <v>720.6083788665362</v>
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>420.237879300003</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C33" t="n">
-        <v>245.784850018876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>96.85044035762476</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>96.85044035762476</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>96.85044035762476</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>96.85044035762476</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6785,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>588.4532163200711</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6888,22 +6888,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>262.7299197543128</v>
@@ -6967,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.0338015341832</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,16 +7025,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>527.4825781782833</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>284.0338015341832</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>284.0338015341832</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y36" t="n">
-        <v>284.0338015341832</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>136.7812428759814</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C39" t="n">
-        <v>136.7812428759814</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7259,19 +7259,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7286,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="Y39" t="n">
-        <v>304.9965798960495</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="40">
@@ -7359,7 +7359,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7414,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7444,19 +7444,19 @@
         <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7493,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
-        <v>752.1869855945927</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7520,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="43">
@@ -7602,10 +7602,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C44" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="D44" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="E44" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F44" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C44" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="D44" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E44" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F44" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7651,10 +7651,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>469.413761616576</v>
@@ -7678,19 +7678,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
         <v>431.628992076841</v>
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
         <v>16.44142755506243</v>
@@ -7730,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O45" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>793.0530417235304</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>590.8664470822965</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U45" t="n">
-        <v>383.2726648214073</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V45" t="n">
-        <v>383.2726648214073</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W45" t="n">
-        <v>175.6788825605179</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>175.6788825605179</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>781.8412894009042</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>781.8412894009042</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>781.8412894009042</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>781.8412894009042</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7990,13 +7990,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>234.2160227667432</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8455,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8707,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8929,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9011,13 +9011,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2508595994748</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10202,13 +10202,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10433,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10448,7 +10448,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10907,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11074,10 +11074,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11153,10 +11153,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P42" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22594,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>296.6012590300473</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,16 +22679,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>45.027556424908</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D5" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22919,16 +22919,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X6" t="n">
-        <v>100.4039271485011</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1648513390239543</v>
@@ -22947,7 +22947,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23023,7 +23023,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>385.7157455161685</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23089,7 +23089,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>210.2952827598132</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>191.1957620459343</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>196.2020637443827</v>
+        <v>194.2434736043149</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>52.07289411093632</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23387,10 +23387,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23399,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>170.2471673614415</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>201.982606264288</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7700698467189</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23548,13 +23548,13 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23594,10 +23594,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>202.8937390206026</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>106.5525690386005</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,13 +23974,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>164.3376445463983</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24031,7 +24031,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24098,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>101.9362516896722</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>140.9160811946027</v>
@@ -24220,7 +24220,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>362.8771690273874</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24268,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24293,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>102.816009430623</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24502,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X26" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,19 +24575,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>89.08694932940654</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>27.65101447282919</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24645,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24724,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
@@ -24742,7 +24742,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>41.79813932930071</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>51.84513477392159</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24858,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24879,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>139.1387058269376</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25013,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>35.44183996155854</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25207,10 +25207,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>62.6936222359269</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25253,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,13 +25286,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0.7564842852176241</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,13 +25472,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>31.11996679652773</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>39.19487605905914</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25599,10 +25599,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25645,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25684,13 +25684,13 @@
         <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>70.32553552659908</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>83.531714274124</v>
       </c>
       <c r="D42" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25918,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U44" t="n">
         <v>45.82780846955609</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25952,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25994,10 +25994,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>142.9550184345426</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>190.8277824174221</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.593260554236</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26046,7 +26046,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>410322.9112719612</v>
+        <v>410322.911271961</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>410322.911271961</v>
+        <v>410322.9112719612</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410322.9112719612</v>
+        <v>410322.9112719611</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432196.38341668</v>
+        <v>432196.3834166799</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>432196.3834166799</v>
+        <v>432196.38341668</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>432196.38341668</v>
+        <v>432196.3834166799</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410322.911271961</v>
+        <v>410322.9112719611</v>
       </c>
     </row>
     <row r="16">
@@ -26322,7 +26322,7 @@
         <v>165645.5239266781</v>
       </c>
       <c r="E2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="F2" t="n">
         <v>165645.5239266781</v>
@@ -26334,28 +26334,28 @@
         <v>174468.7061578989</v>
       </c>
       <c r="I2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="J2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="K2" t="n">
         <v>174468.7061578989</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="M2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="N2" t="n">
         <v>174468.7061578989</v>
-      </c>
-      <c r="K2" t="n">
-        <v>174468.706157899</v>
-      </c>
-      <c r="L2" t="n">
-        <v>174468.7061578989</v>
-      </c>
-      <c r="M2" t="n">
-        <v>174468.7061578989</v>
-      </c>
-      <c r="N2" t="n">
-        <v>174468.706157899</v>
       </c>
       <c r="O2" t="n">
         <v>165645.5239266781</v>
       </c>
       <c r="P2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
     </row>
     <row r="3">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>23970.50033531153</v>
+      </c>
+      <c r="C4" t="n">
         <v>23970.50033531152</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>23970.50033531153</v>
       </c>
-      <c r="D4" t="n">
-        <v>23970.50033531152</v>
-      </c>
       <c r="E4" t="n">
-        <v>23970.50033531152</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="F4" t="n">
-        <v>23970.50033531152</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="G4" t="n">
         <v>25282.26821261927</v>
@@ -26459,7 +26459,7 @@
         <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26678.18206782934</v>
+        <v>14040.01991296882</v>
       </c>
       <c r="C6" t="n">
-        <v>95551.93864951914</v>
+        <v>82913.77649465864</v>
       </c>
       <c r="D6" t="n">
-        <v>95551.93864951917</v>
+        <v>82913.77649465864</v>
       </c>
       <c r="E6" t="n">
-        <v>129179.5386495192</v>
+        <v>116541.3764946587</v>
       </c>
       <c r="F6" t="n">
-        <v>129179.5386495191</v>
+        <v>116541.3764946587</v>
       </c>
       <c r="G6" t="n">
-        <v>124803.7262073509</v>
+        <v>112585.7155873104</v>
       </c>
       <c r="H6" t="n">
-        <v>134532.769181518</v>
+        <v>122314.7585614775</v>
       </c>
       <c r="I6" t="n">
-        <v>134532.769181518</v>
+        <v>122314.7585614776</v>
       </c>
       <c r="J6" t="n">
-        <v>80760.25829130854</v>
+        <v>68542.24767126812</v>
       </c>
       <c r="K6" t="n">
-        <v>134532.769181518</v>
+        <v>122314.7585614775</v>
       </c>
       <c r="L6" t="n">
-        <v>134532.769181518</v>
+        <v>122314.7585614776</v>
       </c>
       <c r="M6" t="n">
-        <v>134532.769181518</v>
+        <v>122314.7585614776</v>
       </c>
       <c r="N6" t="n">
-        <v>134532.769181518</v>
+        <v>122314.7585614775</v>
       </c>
       <c r="O6" t="n">
-        <v>129179.5386495191</v>
+        <v>116541.3764946586</v>
       </c>
       <c r="P6" t="n">
-        <v>129179.5386495192</v>
+        <v>116541.3764946587</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34710,13 +34710,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35190,7 +35190,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35427,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O12" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35649,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35731,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,7 +36211,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9091475161415</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36922,13 +36922,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37627,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37794,10 +37794,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37873,10 +37873,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P42" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
